--- a/xlsx/country_comparison/field_issue_keyword_positive.xlsx
+++ b/xlsx/country_comparison/field_issue_keyword_positive.xlsx
@@ -593,7 +593,7 @@
         <v>0.0538226065137</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0604600286269178</v>
+        <v>0.0604600286269179</v>
       </c>
       <c r="K2" t="n">
         <v>0.311153612853272</v>
@@ -613,7 +613,7 @@
         <v>0.105591303377429</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0893626770679001</v>
+        <v>0.0893626770679002</v>
       </c>
       <c r="D3" t="n">
         <v>0.0897760504823215</v>
@@ -695,7 +695,7 @@
         <v>0.0760119155157779</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0807179355459334</v>
+        <v>0.0807179355459335</v>
       </c>
       <c r="D5" t="n">
         <v>0.0430833299302165</v>
@@ -754,7 +754,7 @@
         <v>0.0487663682840097</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0432360457336181</v>
+        <v>0.0432360457336182</v>
       </c>
       <c r="J6" t="n">
         <v>0.0749359835479793</v>
@@ -766,7 +766,7 @@
         <v>0.119117098061913</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0724430551779571</v>
+        <v>0.072443055177957</v>
       </c>
     </row>
     <row r="7">
@@ -909,7 +909,7 @@
         <v>0.0428822306625033</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0873230520126422</v>
+        <v>0.0873230520126423</v>
       </c>
       <c r="G10" t="n">
         <v>0.027524448802258</v>
@@ -927,7 +927,7 @@
         <v>0.0243445240470381</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0788458454439308</v>
+        <v>0.0788458454439307</v>
       </c>
       <c r="M10" t="n">
         <v>0.02542614032408</v>
@@ -1000,7 +1000,7 @@
         <v>0.0363541392928281</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0615869546071923</v>
+        <v>0.0615869546071922</v>
       </c>
       <c r="J12" t="n">
         <v>0.0144747507344528</v>
@@ -1419,7 +1419,7 @@
         <v>0.00399557335199698</v>
       </c>
       <c r="L22" t="n">
-        <v>0.00504706685362091</v>
+        <v>0.0050470668536209</v>
       </c>
       <c r="M22" t="n">
         <v>0.0342769230850317</v>
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.00961970958642967</v>
+        <v>0.00961970958642966</v>
       </c>
       <c r="H28" t="n">
         <v>0.00602906038002368</v>
@@ -1709,7 +1709,7 @@
         <v>0.00305032427250752</v>
       </c>
       <c r="M29" t="n">
-        <v>0.00853030999526708</v>
+        <v>0.00853030999526707</v>
       </c>
     </row>
     <row r="30">
@@ -2139,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0059411680412814</v>
+        <v>0.00594116804128139</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>

--- a/xlsx/country_comparison/field_issue_keyword_positive.xlsx
+++ b/xlsx/country_comparison/field_issue_keyword_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -47,6 +47,9 @@
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
+    <t xml:space="preserve">Russia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
@@ -68,6 +71,9 @@
     <t xml:space="preserve">Environment; climate change</t>
   </si>
   <si>
+    <t xml:space="preserve">Old age; retirement; ageing society</t>
+  </si>
+  <si>
     <t xml:space="preserve">Criticism of immigration; national preference</t>
   </si>
   <si>
@@ -80,51 +86,48 @@
     <t xml:space="preserve">Work; (un)employment; business</t>
   </si>
   <si>
-    <t xml:space="preserve">Old age; retirement; ageing society</t>
+    <t xml:space="preserve">Family; children; childcare</t>
   </si>
   <si>
     <t xml:space="preserve">Inflation; cost of living</t>
   </si>
   <si>
-    <t xml:space="preserve">Family; children; childcare</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rights; democracy; freedom; slavery</t>
   </si>
   <si>
     <t xml:space="preserve">Discrimination; gender inequality; racism; LGBT</t>
   </si>
   <si>
+    <t xml:space="preserve">International issues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">War; peace</t>
+  </si>
+  <si>
     <t xml:space="preserve">Security; violence; crime; judicial system</t>
   </si>
   <si>
+    <t xml:space="preserve">Wage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Car</t>
+  </si>
+  <si>
     <t xml:space="preserve">Poverty; inequality</t>
   </si>
   <si>
-    <t xml:space="preserve">Car</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International issues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">War; peace</t>
-  </si>
-  <si>
     <t xml:space="preserve">Government; president</t>
   </si>
   <si>
     <t xml:space="preserve">Economy</t>
   </si>
   <si>
-    <t xml:space="preserve">Wage</t>
+    <t xml:space="preserve">Housing</t>
   </si>
   <si>
     <t xml:space="preserve">Politics</t>
   </si>
   <si>
-    <t xml:space="preserve">Housing</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mental health</t>
   </si>
   <si>
@@ -140,18 +143,18 @@
     <t xml:space="preserve">Trump</t>
   </si>
   <si>
+    <t xml:space="preserve">Time; more free time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sport</t>
+  </si>
+  <si>
     <t xml:space="preserve">Abortion</t>
   </si>
   <si>
-    <t xml:space="preserve">Time; more free time</t>
-  </si>
-  <si>
     <t xml:space="preserve">Corruption; criticism of the government</t>
   </si>
   <si>
-    <t xml:space="preserve">Sport</t>
-  </si>
-  <si>
     <t xml:space="preserve">Media</t>
   </si>
   <si>
@@ -161,13 +164,13 @@
     <t xml:space="preserve">Palestine</t>
   </si>
   <si>
+    <t xml:space="preserve">Relationships; love; emotions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birthrate</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tariffs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relationships; love; emotions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birthrate</t>
   </si>
   <si>
     <t xml:space="preserve">Stock; investment</t>
@@ -563,1079 +566,1160 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.109911987669369</v>
+        <v>0.115052274797897</v>
       </c>
       <c r="C2" t="n">
         <v>0.0792714803036281</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0899169596220143</v>
+        <v>0.0897267560593371</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0887448604071475</v>
+        <v>0.0910032308292584</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0401037673730859</v>
+        <v>0.0386403559403454</v>
       </c>
       <c r="G2" t="n">
-        <v>0.217070221708976</v>
+        <v>0.209880052178761</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0224703083228409</v>
+        <v>0.0195899559547786</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0538226065137</v>
+        <v>0.0542863236817992</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0604600286269179</v>
+        <v>0.0633683603197844</v>
       </c>
       <c r="K2" t="n">
-        <v>0.311153612853272</v>
+        <v>0.31037352792359</v>
       </c>
       <c r="L2" t="n">
-        <v>0.100600387468335</v>
+        <v>0.148227995765012</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0656392990389113</v>
+        <v>0.113324957288192</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.0663813574215485</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.105591303377429</v>
+        <v>0.106510321398853</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0893626770679002</v>
+        <v>0.0893626770679001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0897760504823215</v>
+        <v>0.0877591736816914</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0525468954229138</v>
+        <v>0.0532908141625954</v>
       </c>
       <c r="F3" t="n">
-        <v>0.111553647091828</v>
+        <v>0.109223177835104</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0732800116715354</v>
+        <v>0.0720261358795199</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0971332909354284</v>
+        <v>0.101888730228281</v>
       </c>
       <c r="I3" t="n">
-        <v>0.121473279448477</v>
+        <v>0.116793911742841</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0875267938791147</v>
+        <v>0.0880390254495429</v>
       </c>
       <c r="K3" t="n">
-        <v>0.120039635876055</v>
+        <v>0.122673509427526</v>
       </c>
       <c r="L3" t="n">
-        <v>0.108959869363582</v>
+        <v>0.117733137992508</v>
       </c>
       <c r="M3" t="n">
-        <v>0.118602211624408</v>
+        <v>0.108842501206562</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.118596737303</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0938343652221305</v>
+        <v>0.0910880329847298</v>
       </c>
       <c r="C4" t="n">
         <v>0.0982003819104203</v>
       </c>
       <c r="D4" t="n">
-        <v>0.121553041123732</v>
+        <v>0.126863945670855</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0778762358117859</v>
+        <v>0.0842036134591132</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0754973485555803</v>
+        <v>0.0849385726885772</v>
       </c>
       <c r="G4" t="n">
-        <v>0.141299239617016</v>
+        <v>0.142412907400484</v>
       </c>
       <c r="H4" t="n">
-        <v>0.104586897592578</v>
+        <v>0.10130115104977</v>
       </c>
       <c r="I4" t="n">
-        <v>0.094128136483715</v>
+        <v>0.0972084280751628</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0923125801268864</v>
+        <v>0.096820870717792</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0859450139288015</v>
+        <v>0.0871004364983281</v>
       </c>
       <c r="L4" t="n">
-        <v>0.114203398640628</v>
+        <v>0.0892756197872566</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0900966119575401</v>
+        <v>0.0989753794636761</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.0903263817841478</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0760119155157779</v>
+        <v>0.0739163568585772</v>
       </c>
       <c r="C5" t="n">
         <v>0.0807179355459335</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0430833299302165</v>
+        <v>0.0487013366200989</v>
       </c>
       <c r="E5" t="n">
-        <v>0.04484923770682</v>
+        <v>0.0500021676679227</v>
       </c>
       <c r="F5" t="n">
-        <v>0.156676421350534</v>
+        <v>0.15162344272467</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0494429200414382</v>
+        <v>0.0515594061282486</v>
       </c>
       <c r="H5" t="n">
-        <v>0.134374512550912</v>
+        <v>0.133504900260846</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0796100344192054</v>
+        <v>0.0822783710875734</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0117209628007785</v>
+        <v>0.0147249197490722</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0202819606662688</v>
+        <v>0.0212270171068678</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0473488841743061</v>
+        <v>0.0582735544356154</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0954487897987865</v>
+        <v>0.0480382048657448</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.095433584131327</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0543443124105775</v>
+        <v>0.0481568707194364</v>
       </c>
       <c r="C6" t="n">
         <v>0.0493108386620199</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0110437544496069</v>
+        <v>0.0115276791031246</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0782914178781008</v>
+        <v>0.0789796938869182</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0765735055074399</v>
+        <v>0.0754591254684969</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00774051627364463</v>
+        <v>0.00551700978032409</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0487663682840097</v>
+        <v>0.0418089160041164</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0432360457336182</v>
+        <v>0.0440086731376919</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0749359835479793</v>
+        <v>0.069184624762154</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0102260928641849</v>
+        <v>0.0104030520109652</v>
       </c>
       <c r="L6" t="n">
-        <v>0.119117098061913</v>
+        <v>0.00314092979097778</v>
       </c>
       <c r="M6" t="n">
-        <v>0.072443055177957</v>
+        <v>0.110185068496221</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.0728749621252827</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0481091574936598</v>
+        <v>0.0473449509358172</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0775856995704763</v>
+        <v>0.0510654998556122</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0723601245214423</v>
+        <v>0.0291224871218703</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0958132788174297</v>
+        <v>0.138911161881312</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0346843977102165</v>
+        <v>0.00461600063625456</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0642928913581371</v>
+        <v>0.020231589981552</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0420087826917777</v>
+        <v>0.0363193372102349</v>
       </c>
       <c r="I7" t="n">
-        <v>0.130368748335492</v>
+        <v>0.028944194533385</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0941102250599809</v>
+        <v>0.0221306592362674</v>
       </c>
       <c r="K7" t="n">
-        <v>0.010429586997699</v>
+        <v>0.0686855482596943</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00835217044629374</v>
+        <v>0.125294080784351</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0320213616162838</v>
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.0024280333160127</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0419997135746292</v>
+        <v>0.0432673546374365</v>
       </c>
       <c r="C8" t="n">
-        <v>0.051239440836397</v>
+        <v>0.0775856995704763</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0164164271342244</v>
+        <v>0.0712375301740371</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0734537439161689</v>
+        <v>0.0925953960281482</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0447886682468363</v>
+        <v>0.0363182595884508</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0390942596684645</v>
+        <v>0.061204768102159</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0649323673580479</v>
+        <v>0.0473806741980061</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0515121423798576</v>
+        <v>0.135879266785786</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0858598577939791</v>
+        <v>0.089772701979316</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0221802751306048</v>
+        <v>0.00990356628127503</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0532145020236078</v>
+        <v>0.0109540395661977</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0381269535529573</v>
+        <v>0.00935255361429119</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.0313382377528386</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0419783287805549</v>
+        <v>0.0416108741179385</v>
       </c>
       <c r="C9" t="n">
-        <v>0.033003499049024</v>
+        <v>0.051239440836397</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0229059321802422</v>
+        <v>0.0197726738446422</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0350853663887214</v>
+        <v>0.0758305319892327</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0246078235274194</v>
+        <v>0.046443412134023</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0318486148661815</v>
+        <v>0.0385187579351764</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0425196324688273</v>
+        <v>0.0686288126293051</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0405593961110592</v>
+        <v>0.0463270670066249</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0312640862040347</v>
+        <v>0.0921519935198721</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0894505692926449</v>
+        <v>0.023595166649069</v>
       </c>
       <c r="L9" t="n">
-        <v>0.00209394973547232</v>
+        <v>0.0403152817696179</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0368758428338837</v>
+        <v>0.0410987980038045</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.0358706588780997</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0355342949027312</v>
+        <v>0.0372531046434828</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0447384754104157</v>
+        <v>0.033003499049024</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0170261577869618</v>
+        <v>0.0200925652787321</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0428822306625033</v>
+        <v>0.0369361170690748</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0873230520126423</v>
+        <v>0.0255774718996689</v>
       </c>
       <c r="G10" t="n">
-        <v>0.027524448802258</v>
+        <v>0.0289466312389374</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0374752113905431</v>
+        <v>0.039718340609662</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0550215323990705</v>
+        <v>0.0386293206624873</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.0349002719002108</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0243445240470381</v>
+        <v>0.0907231194754872</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0788458454439307</v>
+        <v>0.00464511174103632</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02542614032408</v>
+        <v>0.00203128319408539</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.0379385255780114</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0338018159483514</v>
+        <v>0.0352470318055499</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0510654998556122</v>
+        <v>0.0447384754104157</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0280642703976687</v>
+        <v>0.0181869413428059</v>
       </c>
       <c r="E11" t="n">
-        <v>0.141261250472283</v>
+        <v>0.0496461688782367</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00543845520366261</v>
+        <v>0.0858541156672054</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0186614434248099</v>
+        <v>0.0235410163973576</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0358617092251995</v>
+        <v>0.0347972371510826</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0295418053495608</v>
+        <v>0.0550818549447137</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0220419662342299</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0685590531932564</v>
+        <v>0.0243064094220042</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>0.0299199032665855</v>
       </c>
       <c r="M11" t="n">
-        <v>0.00236352624106341</v>
+        <v>0.0781625943658781</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.0253500317970924</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0320822440500477</v>
+        <v>0.0326877761824254</v>
       </c>
       <c r="C12" t="n">
-        <v>0.027214621048549</v>
+        <v>0.0396026972459658</v>
       </c>
       <c r="D12" t="n">
-        <v>0.00569933894175807</v>
+        <v>0.0289317010488774</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0125368320001691</v>
+        <v>0.0393361022277491</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0327544538428447</v>
+        <v>0.0296548217825712</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0170013681879817</v>
+        <v>0.0420875299303553</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0363541392928281</v>
+        <v>0.0129128842809663</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0615869546071922</v>
+        <v>0.0707768190153033</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0144747507344528</v>
+        <v>0.0235164089051452</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0203177480683684</v>
+        <v>0.0299459393261416</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0178065046839323</v>
+        <v>0.0379520509255219</v>
       </c>
       <c r="M12" t="n">
-        <v>0.043812176775669</v>
+        <v>0.0302976379732224</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.0226298318361604</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0317874343928534</v>
+        <v>0.029971274406189</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0396026972459658</v>
+        <v>0.027214621048549</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0280341123238887</v>
+        <v>0.00901082989726835</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0435309449545951</v>
+        <v>0.0170844505269071</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0333228286380628</v>
+        <v>0.034798750787892</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0400361917563925</v>
+        <v>0.0182023288965157</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0144683610314156</v>
+        <v>0.0431336688676669</v>
       </c>
       <c r="I13" t="n">
-        <v>0.07145500611806</v>
+        <v>0.0563633319317598</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0228008192361148</v>
+        <v>0.0153201617268983</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0298714725591578</v>
+        <v>0.0215462699452781</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0356295302650308</v>
+        <v>0.0113843590999616</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0230112519299459</v>
+        <v>0.0164141891630956</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.0430123237644364</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0307437826426348</v>
+        <v>0.0289690070785351</v>
       </c>
       <c r="C14" t="n">
         <v>0.0168289476548504</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0114928475163904</v>
+        <v>0.0133605680920401</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0186306477396465</v>
+        <v>0.0189648287588119</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0262719230713374</v>
+        <v>0.0253451424317217</v>
       </c>
       <c r="G14" t="n">
-        <v>0.00594037833831464</v>
+        <v>0.00781064406312524</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0177339634203508</v>
+        <v>0.0156288323905161</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0161725843626561</v>
+        <v>0.0146054261183266</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0205417081933326</v>
+        <v>0.0192785613911901</v>
       </c>
       <c r="K14" t="n">
-        <v>0.00410929072833929</v>
+        <v>0.0035402811126803</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0185445371168886</v>
+        <v>0.0158005654544187</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0589610848158326</v>
+        <v>0.0186422657377643</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.0580551428924481</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0284148434368042</v>
+        <v>0.0249609856996522</v>
       </c>
       <c r="C15" t="n">
         <v>0.0227884725231935</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0210009483879767</v>
+        <v>0.0204635863886026</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0257570245471351</v>
+        <v>0.0271453380861294</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0094503095826771</v>
+        <v>0.00991323247064574</v>
       </c>
       <c r="G15" t="n">
-        <v>0.00669814084473024</v>
+        <v>0.00683489886143795</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0170138371295824</v>
+        <v>0.0184553822983259</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0485902282924569</v>
+        <v>0.0405469753212224</v>
       </c>
       <c r="J15" t="n">
-        <v>0.00930667310630842</v>
+        <v>0.0123784376286179</v>
       </c>
       <c r="K15" t="n">
-        <v>0.00821126338186777</v>
+        <v>0.00791199053392611</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0200129105426524</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0439335376165882</v>
+        <v>0.0181967400062434</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.0431556010505725</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0246655507922525</v>
+        <v>0.0236299456790485</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0209334902157123</v>
+        <v>0.0231109506877404</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0181422468642986</v>
+        <v>0.0211840364970522</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0129115383699918</v>
+        <v>0.0241457289884186</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0526672784908818</v>
+        <v>0.0255285515806795</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0183128936470154</v>
+        <v>0.0232417232434054</v>
       </c>
       <c r="H16" t="n">
-        <v>0.00622268524758869</v>
+        <v>0.00547833436757934</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0198241665480995</v>
+        <v>0.0321403158831665</v>
       </c>
       <c r="J16" t="n">
-        <v>0.00648845610781718</v>
+        <v>0.0277288559542949</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0185125733427946</v>
+        <v>0.0150242470665304</v>
       </c>
       <c r="L16" t="n">
-        <v>0.00524973056929844</v>
+        <v>0.0325064132061904</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0332396036353705</v>
+        <v>0.156012805336298</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.0156196426760259</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0243145533144203</v>
+        <v>0.023186218124063</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0351213436485718</v>
+        <v>0.0247931734707116</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0233215079943593</v>
+        <v>0.0269057743790224</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0488498924701074</v>
+        <v>0.0221944604787345</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0528577708261721</v>
+        <v>0.0245493310189418</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0199786493735711</v>
+        <v>0.0242956362829556</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0388947324866844</v>
+        <v>0.0143593463961339</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0206754912196851</v>
+        <v>0.0360993700994214</v>
       </c>
       <c r="J17" t="n">
-        <v>0.013435885275617</v>
+        <v>0.00591132561920726</v>
       </c>
       <c r="K17" t="n">
-        <v>0.00413429928961594</v>
+        <v>0.00347066992879991</v>
       </c>
       <c r="L17" t="n">
-        <v>0.032106933756177</v>
+        <v>0.0319622964227953</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0190377112281858</v>
+        <v>0.0419857574557901</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.0265528160873683</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0240673050437147</v>
+        <v>0.0229814185480739</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0191863665313236</v>
+        <v>0.0209334902157123</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0108943111891784</v>
+        <v>0.0176720035144569</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0144749580795024</v>
+        <v>0.0124755238458848</v>
       </c>
       <c r="F18" t="n">
-        <v>0.00924968557977842</v>
+        <v>0.0614731092219286</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0274676742298405</v>
+        <v>0.0198862042640808</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0150566515223826</v>
+        <v>0.00696406057609828</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0422821423188688</v>
+        <v>0.0173500603551642</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.00777532025077905</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0243933632763252</v>
+        <v>0.0187821235645056</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0109051148019186</v>
+        <v>0.00884693272961267</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0308368303672497</v>
+        <v>0.00585764489770523</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.0308468408112907</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0234144303012267</v>
+        <v>0.0217969209696176</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0231109506877404</v>
+        <v>0.0227654055373961</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0224528762444683</v>
+        <v>0.0133197326935167</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0251092581059742</v>
+        <v>0.00927281906901243</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0235722629961236</v>
+        <v>0.0534199758281889</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0244063059950108</v>
+        <v>0.0189042475244148</v>
       </c>
       <c r="H19" t="n">
-        <v>0.00602906038002368</v>
+        <v>0.0216298540356756</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0320489768243418</v>
+        <v>0.0144866553190768</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0295130012582898</v>
+        <v>0.0239130611509187</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0162255617936307</v>
+        <v>0.0342822291664603</v>
       </c>
       <c r="L19" t="n">
-        <v>0.159638947960498</v>
+        <v>0.0415773565414602</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0148116739223925</v>
+        <v>0.00671574456415272</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.0134228160912082</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0229724232038192</v>
+        <v>0.0217129621337727</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0247931734707116</v>
+        <v>0.0191863665313236</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0282148407609259</v>
+        <v>0.00919206895206212</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0240840034123857</v>
+        <v>0.0153087135389501</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0258481785503571</v>
+        <v>0.00930141589354182</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0232610168854833</v>
+        <v>0.0260021976169572</v>
       </c>
       <c r="H20" t="n">
-        <v>0.011622471551841</v>
+        <v>0.0155493946489354</v>
       </c>
       <c r="I20" t="n">
-        <v>0.035098693345763</v>
+        <v>0.0414639329167907</v>
       </c>
       <c r="J20" t="n">
-        <v>0.00593256599902127</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.00387252862698026</v>
+        <v>0.0236738440995859</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0444940949884644</v>
+        <v>0.00428937889706902</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0266593953166367</v>
+        <v>0.0112696670925992</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.0298810049080889</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0225332354843751</v>
+        <v>0.0213449705114774</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0163305422257927</v>
+        <v>0.0351213436485718</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0174452432720387</v>
+        <v>0.0250448570063147</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0028113077363955</v>
+        <v>0.042323166937636</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0114908846072012</v>
+        <v>0.05439710861816</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0335660449956587</v>
+        <v>0.0189867949096701</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0165177389070995</v>
+        <v>0.0352263623809081</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0288507270555134</v>
+        <v>0.0181940615303154</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.0113217941827845</v>
       </c>
       <c r="K21" t="n">
-        <v>0.01806073183477</v>
+        <v>0.0047390895174418</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0336136534786404</v>
+        <v>0.0280211592007175</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.0192285662503139</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0223157608157775</v>
+        <v>0.0206844352279172</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0197167966420528</v>
+        <v>0.0163305422257927</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0179037663492778</v>
+        <v>0.0160272571415344</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0138257370606843</v>
+        <v>0.00275899476905273</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0232720996759844</v>
+        <v>0.00936591054441044</v>
       </c>
       <c r="G22" t="n">
-        <v>0.00867523348448189</v>
+        <v>0.0339130189350852</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0247846790561756</v>
+        <v>0.0141917152692673</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0292967188831363</v>
+        <v>0.0317186405841322</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0156613262386297</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.00399557335199698</v>
+        <v>0.0168674986489512</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0050470668536209</v>
+        <v>0.00750488936071051</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0342769230850317</v>
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.0340310875328529</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0199615944332109</v>
+        <v>0.0196039362479303</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0227654055373961</v>
+        <v>0.0197167966420528</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0161346545581482</v>
+        <v>0.0205535007355811</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0112414964154672</v>
+        <v>0.01429561451954</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0563951406919382</v>
+        <v>0.0241561295496608</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0200200788632204</v>
+        <v>0.00718439386256266</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0226390144458036</v>
+        <v>0.0209242853833416</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0145574851687019</v>
+        <v>0.0262401982762189</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0269199628728619</v>
+        <v>0.0173749876004061</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0328144526549548</v>
+        <v>0.00487830857292739</v>
       </c>
       <c r="L23" t="n">
-        <v>0.00570984444874823</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0127098633725087</v>
+        <v>0.00459866282303619</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.034261523959574</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0188525532701104</v>
+        <v>0.0194707518124878</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0144995708620113</v>
+        <v>0.0186175523464722</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0176830730259063</v>
+        <v>0.0230923097017384</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0134329432470183</v>
+        <v>0.00493547896337238</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0165993362887063</v>
+        <v>0.00582592343454313</v>
       </c>
       <c r="G24" t="n">
-        <v>0.00647630716058521</v>
+        <v>0.00766345419616565</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0369911167692712</v>
+        <v>0.0392803077481933</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>0.0277622211004533</v>
       </c>
       <c r="J24" t="n">
-        <v>0.00636636048774998</v>
+        <v>0.0229619883850566</v>
       </c>
       <c r="K24" t="n">
-        <v>0.024036503560736</v>
+        <v>0.0100500131687251</v>
       </c>
       <c r="L24" t="n">
-        <v>0.00967714621551711</v>
+        <v>0.0327464240152075</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0226920262428142</v>
+        <v>0.00640673314223267</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.0215711641155303</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0177033754302647</v>
+        <v>0.0164966770885023</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0186175523464722</v>
+        <v>0.0144995708620113</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0219381986407833</v>
+        <v>0.0179458702698672</v>
       </c>
       <c r="E25" t="n">
-        <v>0.00689573896317971</v>
+        <v>0.0123847148778082</v>
       </c>
       <c r="F25" t="n">
-        <v>0.00607127914022499</v>
+        <v>0.0187962878101964</v>
       </c>
       <c r="G25" t="n">
-        <v>0.00817667625442243</v>
+        <v>0.00647572740966664</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0385368433364624</v>
+        <v>0.0289667519519623</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0335835324918379</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0196081988544911</v>
+        <v>0.00643327495522183</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0103547079699309</v>
+        <v>0.0238794766562969</v>
       </c>
       <c r="L25" t="n">
-        <v>0.00681593235565145</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0205390603476149</v>
+        <v>0.00804507193545768</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.0229643543474621</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" t="n">
-        <v>0.016046411274991</v>
+        <v>0.0140754722747706</v>
       </c>
       <c r="C26" t="n">
         <v>0.0172513674965279</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0107659105640016</v>
+        <v>0.0121438048774192</v>
       </c>
       <c r="E26" t="n">
-        <v>0.00604514255284498</v>
+        <v>0.00907009113859651</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0186563481226368</v>
+        <v>0.0171542908379147</v>
       </c>
       <c r="G26" t="n">
-        <v>0.00713155433588901</v>
+        <v>0.00635882755398176</v>
       </c>
       <c r="H26" t="n">
-        <v>0.036072979323084</v>
+        <v>0.0354802676523459</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0305717036544025</v>
+        <v>0.0316309771792321</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.00409203152429036</v>
+        <v>0.00414861081508145</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0339555716835586</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0178904366272658</v>
+        <v>0.0339473742201801</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.0196071451934602</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0126456430426383</v>
+        <v>0.0125835543026273</v>
       </c>
       <c r="C27" t="n">
         <v>0.0206209253131713</v>
       </c>
       <c r="D27" t="n">
-        <v>0.00615667352644078</v>
+        <v>0.00573286264375415</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0167908561036393</v>
+        <v>0.0137212937895281</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0198847942537393</v>
+        <v>0.0216047902792819</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0302879890462291</v>
+        <v>0.0281997733936513</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0231572936061015</v>
+        <v>0.0195362678946944</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0339565189487154</v>
+        <v>0.0319217345872108</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0.00598166084552213</v>
+        <v>0.00540132125728606</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0141137696225137</v>
+        <v>0.013202356130312</v>
       </c>
       <c r="M27" t="n">
-        <v>0.00580356125951309</v>
+        <v>0.0111725402888186</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.00625444524339625</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0115621278372245</v>
+        <v>0.0102086461959394</v>
       </c>
       <c r="C28" t="n">
         <v>0.00270041148428609</v>
@@ -1650,13 +1734,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.00961970958642966</v>
+        <v>0.0101661890792585</v>
       </c>
       <c r="H28" t="n">
-        <v>0.00602906038002368</v>
+        <v>0.00547833436757934</v>
       </c>
       <c r="I28" t="n">
-        <v>0.00466147751962404</v>
+        <v>0.00503428552860951</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -1668,56 +1752,62 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0276834653783126</v>
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.0276088856122482</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" t="n">
-        <v>0.00902635994603365</v>
+        <v>0.0078943435126691</v>
       </c>
       <c r="C29" t="n">
         <v>0.0129777440155641</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0165446488700651</v>
+        <v>0.0190417719777518</v>
       </c>
       <c r="E29" t="n">
-        <v>0.021171889411974</v>
+        <v>0.0207803573420496</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0103008412084436</v>
+        <v>0.0104291697783865</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0145843679198505</v>
+        <v>0.0155866022738291</v>
       </c>
       <c r="H29" t="n">
-        <v>0.00437588930245375</v>
+        <v>0.00254196806277925</v>
       </c>
       <c r="I29" t="n">
-        <v>0.00346122515380294</v>
+        <v>0.00292936738016026</v>
       </c>
       <c r="J29" t="n">
-        <v>0.040903682110868</v>
+        <v>0.0309821022270974</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0.00305032427250752</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0.00853030999526707</v>
+        <v>0.00250103347765295</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.00791127575476925</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" t="n">
-        <v>0.00788758014716548</v>
+        <v>0.00698198150505145</v>
       </c>
       <c r="C30" t="n">
         <v>0.000829900020555518</v>
@@ -1738,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.00466147751962404</v>
+        <v>0.00503428552860951</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -1750,27 +1840,30 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0200789911325931</v>
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.0199618582692933</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31" t="n">
-        <v>0.00664087023958325</v>
+        <v>0.00670790630270865</v>
       </c>
       <c r="C31" t="n">
-        <v>0.00261152804180916</v>
+        <v>0.0039408705730024</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>0.00396482379805667</v>
       </c>
       <c r="F31" t="n">
-        <v>0.016162678526269</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1779,36 +1872,39 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>0.0167920283563946</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>0.00187818176219553</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>0.00743983526599525</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0146499615396513</v>
+        <v>0.00611733285977923</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.0116924289721548</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32" t="n">
-        <v>0.00660008449793857</v>
+        <v>0.00629493510511014</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0039408705730024</v>
+        <v>0.00393925333703174</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.00428703484395874</v>
+        <v>0.00793927789086837</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -1817,33 +1913,36 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>0.00375166953053444</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0164977766985041</v>
+        <v>0.00984294068936907</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0.00189462898536084</v>
+        <v>0.00747020966848915</v>
       </c>
       <c r="L32" t="n">
-        <v>0.00817218734578845</v>
+        <v>0.0115755436343449</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0114975088671946</v>
+        <v>0.00806851541358217</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.00710030611307241</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B33" t="n">
-        <v>0.00653884666126233</v>
+        <v>0.00581671316758039</v>
       </c>
       <c r="C33" t="n">
-        <v>0.00520162477794216</v>
+        <v>0.00261152804180916</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -1852,13 +1951,13 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>0.0164421555448021</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0383590589549361</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -1867,30 +1966,33 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0019671255311618</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0105298230168462</v>
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.0139092030977387</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B34" t="n">
-        <v>0.00588858122166711</v>
+        <v>0.00571328377139874</v>
       </c>
       <c r="C34" t="n">
-        <v>0.00393925333703174</v>
+        <v>0.00520162477794216</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.00717994403282306</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -1899,45 +2001,48 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.00534897305066863</v>
+        <v>0.037559285463116</v>
       </c>
       <c r="I34" t="n">
-        <v>0.00861013937206725</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0.00807151289423469</v>
+        <v>0.00162948763532949</v>
       </c>
       <c r="L34" t="n">
-        <v>0.00814042327131242</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0.00710999497464677</v>
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.0108769355012685</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B35" t="n">
-        <v>0.00506374274741784</v>
+        <v>0.00489998021193802</v>
       </c>
       <c r="C35" t="n">
         <v>0.00677449807958641</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0103880770829407</v>
+        <v>0.00955979703048607</v>
       </c>
       <c r="E35" t="n">
-        <v>0.00544545800659133</v>
+        <v>0.00423961995916604</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0043758869854262</v>
+        <v>0.00367654764071013</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0270757426627652</v>
+        <v>0.0258836752882183</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1946,39 +2051,42 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.00803207706791708</v>
+        <v>0.00547798837626692</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0020352703516178</v>
+        <v>0.00272721008893755</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0107557537277548</v>
+        <v>0.00464511174103632</v>
       </c>
       <c r="M35" t="n">
-        <v>0.00377313798049584</v>
+        <v>0.00950815721353421</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.00391094871771012</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B36" t="n">
-        <v>0.00493989051663356</v>
+        <v>0.0047918411065227</v>
       </c>
       <c r="C36" t="n">
         <v>0.00549956935133487</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0103880770829407</v>
+        <v>0.00955979703048607</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0043758869854262</v>
+        <v>0.00367654764071013</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0270757426627652</v>
+        <v>0.0258836752882183</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1987,36 +2095,39 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.00803207706791708</v>
+        <v>0.00547798837626692</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0020352703516178</v>
+        <v>0.00272721008893755</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0107557537277548</v>
+        <v>0.00464511174103632</v>
       </c>
       <c r="M36" t="n">
-        <v>0.00494573229472705</v>
+        <v>0.00950815721353421</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.00480953812564164</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B37" t="n">
-        <v>0.00477293952291587</v>
+        <v>0.00418617206584378</v>
       </c>
       <c r="C37" t="n">
         <v>0.00278839060271047</v>
       </c>
       <c r="D37" t="n">
-        <v>0.00578627085627565</v>
+        <v>0.00469097394640647</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.00600988171398575</v>
+        <v>0.00710265676924412</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -2025,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.00505585322596112</v>
+        <v>0.00532553805026338</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -2034,21 +2145,24 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.0488799548090408</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.00519841577497681</v>
+        <v>0.0482821142157147</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.0051065428554096</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B38" t="n">
-        <v>0.00329058370326368</v>
+        <v>0.00330077064030956</v>
       </c>
       <c r="C38" t="n">
-        <v>0.000817562023543983</v>
+        <v>0.00397781748021805</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -2060,92 +2174,98 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.00635882755398176</v>
       </c>
       <c r="H38" t="n">
-        <v>0.00602906038002368</v>
+        <v>0.00678193979296782</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.0154721118565817</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>0.00231329928369363</v>
       </c>
       <c r="L38" t="n">
-        <v>0.00248570921120279</v>
+        <v>0.00405228630149418</v>
       </c>
       <c r="M38" t="n">
-        <v>0.00760447424571948</v>
+        <v>0.00199526973153416</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.00309802645057961</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B39" t="n">
-        <v>0.00323363698372343</v>
+        <v>0.00321116840169773</v>
       </c>
       <c r="C39" t="n">
-        <v>0.00397781748021805</v>
+        <v>0.00193415450793693</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>0.00641283766238411</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>0.00605359643772751</v>
       </c>
       <c r="G39" t="n">
-        <v>0.00713155433588901</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0061265904815267</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0132920231413337</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0.00196905876606651</v>
+        <v>0.0154742883834252</v>
       </c>
       <c r="L39" t="n">
-        <v>0.00248158935936515</v>
+        <v>0.00357793268854287</v>
       </c>
       <c r="M39" t="n">
-        <v>0.00293199335246855</v>
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B40" t="n">
-        <v>0.00320132657477216</v>
+        <v>0.00289020559643624</v>
       </c>
       <c r="C40" t="n">
-        <v>0.00193415450793693</v>
+        <v>0.000817562023543983</v>
       </c>
       <c r="D40" t="n">
-        <v>0.00614572183987529</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.00594116804128139</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>0.00547833436757934</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -2154,21 +2274,24 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0155273689783174</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>0.00205091660553555</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.00764702734295482</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B41" t="n">
-        <v>0.00295794481583997</v>
+        <v>0.00260535698156389</v>
       </c>
       <c r="C41" t="n">
         <v>0.000683701416196641</v>
@@ -2189,27 +2312,30 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.00384029244824263</v>
+        <v>0.0048558094891233</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0.00402590586555854</v>
+        <v>0.00398945801831739</v>
       </c>
       <c r="L41" t="n">
-        <v>0.0134713829816309</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0.00429303407679066</v>
+        <v>0.00707642329543874</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.0047062708647053</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B42" t="n">
-        <v>0.00234942894238956</v>
+        <v>0.00260236861085944</v>
       </c>
       <c r="C42" t="n">
         <v>0.00227746911043968</v>
@@ -2221,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0082108996906484</v>
+        <v>0.0114136558889943</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -2230,27 +2356,30 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.00534039957929728</v>
+        <v>0.00513955177697877</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0.00587276701829736</v>
+        <v>0.00604954157825526</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>0.00334637448551092</v>
       </c>
       <c r="M42" t="n">
-        <v>0.00121700630509333</v>
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.00143761824756711</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B43" t="n">
-        <v>0.00209724374921305</v>
+        <v>0.00239941807195778</v>
       </c>
       <c r="C43" t="n">
         <v>0.000900112180845446</v>
@@ -2271,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.00505585322596112</v>
+        <v>0.00532553805026338</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -2280,27 +2409,30 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0.00291885029278833</v>
+        <v>0.00631437840573418</v>
       </c>
       <c r="M43" t="n">
-        <v>0.00428356025496795</v>
+        <v>0.00201612903225806</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.00468029563388109</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B44" t="n">
-        <v>0.00127149897559332</v>
+        <v>0.00165549142688297</v>
       </c>
       <c r="C44" t="n">
         <v>0.00265331359591758</v>
       </c>
       <c r="D44" t="n">
-        <v>0.00596265121542885</v>
+        <v>0.0050729094757119</v>
       </c>
       <c r="E44" t="n">
-        <v>0.00729577894792494</v>
+        <v>0.00562893576112966</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -2321,18 +2453,21 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0.00305552103244989</v>
+        <v>0.00348213291506612</v>
       </c>
       <c r="M44" t="n">
+        <v>0.00257321253971526</v>
+      </c>
+      <c r="N44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B45" t="n">
-        <v>0.00113291117401653</v>
+        <v>0.000990324574522663</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -2365,15 +2500,18 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0.00302453828730453</v>
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.00324236988418576</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B46" t="n">
-        <v>0.00113291117401653</v>
+        <v>0.000990324574522663</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -2406,15 +2544,18 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.00302453828730453</v>
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.00324236988418576</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B47" t="n">
-        <v>0.000430241964155347</v>
+        <v>0.000377011455847795</v>
       </c>
       <c r="C47" t="n">
         <v>0.000974165295830254</v>
@@ -2432,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.00718392148796801</v>
+        <v>0.00884447863272915</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -2447,15 +2588,18 @@
         <v>0</v>
       </c>
       <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B48" t="n">
-        <v>0.000152318274665741</v>
+        <v>0.000133473113429774</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -2485,9 +2629,12 @@
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>0.00467009066006015</v>
+        <v>0</v>
       </c>
       <c r="M48" t="n">
+        <v>0.00458147380792291</v>
+      </c>
+      <c r="N48" t="n">
         <v>0</v>
       </c>
     </row>

--- a/xlsx/country_comparison/field_issue_keyword_positive.xlsx
+++ b/xlsx/country_comparison/field_issue_keyword_positive.xlsx
@@ -575,7 +575,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.115052274797897</v>
+        <v>0.115148162337902</v>
       </c>
       <c r="C2" t="n">
         <v>0.0792714803036281</v>
@@ -605,7 +605,7 @@
         <v>0.31037352792359</v>
       </c>
       <c r="L2" t="n">
-        <v>0.148227995765012</v>
+        <v>0.149082398033108</v>
       </c>
       <c r="M2" t="n">
         <v>0.113324957288192</v>
@@ -619,7 +619,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.106510321398853</v>
+        <v>0.10659131321496</v>
       </c>
       <c r="C3" t="n">
         <v>0.0893626770679001</v>
@@ -649,7 +649,7 @@
         <v>0.122673509427526</v>
       </c>
       <c r="L3" t="n">
-        <v>0.117733137992508</v>
+        <v>0.118156885797935</v>
       </c>
       <c r="M3" t="n">
         <v>0.108842501206562</v>
@@ -663,7 +663,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0910880329847298</v>
+        <v>0.0911640222823082</v>
       </c>
       <c r="C4" t="n">
         <v>0.0982003819104203</v>
@@ -693,7 +693,7 @@
         <v>0.0871004364983281</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0892756197872566</v>
+        <v>0.0902850560467602</v>
       </c>
       <c r="M4" t="n">
         <v>0.0989753794636761</v>
@@ -707,7 +707,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0739163568585772</v>
+        <v>0.0739282602485202</v>
       </c>
       <c r="C5" t="n">
         <v>0.0807179355459335</v>
@@ -737,7 +737,7 @@
         <v>0.0212270171068678</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0582735544356154</v>
+        <v>0.0584096726352416</v>
       </c>
       <c r="M5" t="n">
         <v>0.0480382048657448</v>
@@ -751,7 +751,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0481568707194364</v>
+        <v>0.048161796177422</v>
       </c>
       <c r="C6" t="n">
         <v>0.0493108386620199</v>
@@ -781,7 +781,7 @@
         <v>0.0104030520109652</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00314092979097778</v>
+        <v>0.00309803228083801</v>
       </c>
       <c r="M6" t="n">
         <v>0.110185068496221</v>
@@ -795,7 +795,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0473449509358172</v>
+        <v>0.0465605880034529</v>
       </c>
       <c r="C7" t="n">
         <v>0.0510654998556122</v>
@@ -825,7 +825,7 @@
         <v>0.0686855482596943</v>
       </c>
       <c r="L7" t="n">
-        <v>0.125294080784351</v>
+        <v>0.120072277978706</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -839,7 +839,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0432673546374365</v>
+        <v>0.043264683684599</v>
       </c>
       <c r="C8" t="n">
         <v>0.0775856995704763</v>
@@ -869,7 +869,7 @@
         <v>0.00990356628127503</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0109540395661977</v>
+        <v>0.0109184419263214</v>
       </c>
       <c r="M8" t="n">
         <v>0.00935255361429119</v>
@@ -883,7 +883,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0416108741179385</v>
+        <v>0.04165757609509</v>
       </c>
       <c r="C9" t="n">
         <v>0.051239440836397</v>
@@ -913,7 +913,7 @@
         <v>0.023595166649069</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0403152817696179</v>
+        <v>0.0404094445416948</v>
       </c>
       <c r="M9" t="n">
         <v>0.0410987980038045</v>
@@ -927,7 +927,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0372531046434828</v>
+        <v>0.0372564590045932</v>
       </c>
       <c r="C10" t="n">
         <v>0.033003499049024</v>
@@ -957,7 +957,7 @@
         <v>0.0907231194754872</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00464511174103632</v>
+        <v>0.00463381901856897</v>
       </c>
       <c r="M10" t="n">
         <v>0.00203128319408539</v>
@@ -971,7 +971,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0352470318055499</v>
+        <v>0.0352707098897205</v>
       </c>
       <c r="C11" t="n">
         <v>0.0447384754104157</v>
@@ -1001,7 +1001,7 @@
         <v>0.0243064094220042</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0299199032665855</v>
+        <v>0.0302465686646612</v>
       </c>
       <c r="M11" t="n">
         <v>0.0781625943658781</v>
@@ -1015,7 +1015,7 @@
         <v>24</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0326877761824254</v>
+        <v>0.0327584296173894</v>
       </c>
       <c r="C12" t="n">
         <v>0.0396026972459658</v>
@@ -1045,7 +1045,7 @@
         <v>0.0299459393261416</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0379520509255219</v>
+        <v>0.0382390382813244</v>
       </c>
       <c r="M12" t="n">
         <v>0.0302976379732224</v>
@@ -1059,7 +1059,7 @@
         <v>25</v>
       </c>
       <c r="B13" t="n">
-        <v>0.029971274406189</v>
+        <v>0.0299979502357545</v>
       </c>
       <c r="C13" t="n">
         <v>0.027214621048549</v>
@@ -1089,7 +1089,7 @@
         <v>0.0215462699452781</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0113843590999616</v>
+        <v>0.0116693115804877</v>
       </c>
       <c r="M13" t="n">
         <v>0.0164141891630956</v>
@@ -1103,7 +1103,7 @@
         <v>26</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0289690070785351</v>
+        <v>0.028974960601339</v>
       </c>
       <c r="C14" t="n">
         <v>0.0168289476548504</v>
@@ -1133,7 +1133,7 @@
         <v>0.0035402811126803</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0158005654544187</v>
+        <v>0.015710809362256</v>
       </c>
       <c r="M14" t="n">
         <v>0.0186422657377643</v>
@@ -1147,7 +1147,7 @@
         <v>27</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0249609856996522</v>
+        <v>0.0249617661378656</v>
       </c>
       <c r="C15" t="n">
         <v>0.0227884725231935</v>
@@ -1191,7 +1191,7 @@
         <v>28</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0236299456790485</v>
+        <v>0.0236746537867291</v>
       </c>
       <c r="C16" t="n">
         <v>0.0231109506877404</v>
@@ -1221,7 +1221,7 @@
         <v>0.0150242470665304</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0325064132061904</v>
+        <v>0.0325325284137195</v>
       </c>
       <c r="M16" t="n">
         <v>0.156012805336298</v>
@@ -1235,7 +1235,7 @@
         <v>29</v>
       </c>
       <c r="B17" t="n">
-        <v>0.023186218124063</v>
+        <v>0.0232247555010065</v>
       </c>
       <c r="C17" t="n">
         <v>0.0247931734707116</v>
@@ -1265,7 +1265,7 @@
         <v>0.00347066992879991</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0319622964227953</v>
+        <v>0.0319875873800823</v>
       </c>
       <c r="M17" t="n">
         <v>0.0419857574557901</v>
@@ -1279,7 +1279,7 @@
         <v>30</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0229814185480739</v>
+        <v>0.0229888211574028</v>
       </c>
       <c r="C18" t="n">
         <v>0.0209334902157123</v>
@@ -1309,7 +1309,7 @@
         <v>0.0187821235645056</v>
       </c>
       <c r="L18" t="n">
-        <v>0.00884693272961267</v>
+        <v>0.00881927247964563</v>
       </c>
       <c r="M18" t="n">
         <v>0.00585764489770523</v>
@@ -1323,7 +1323,7 @@
         <v>31</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0217969209696176</v>
+        <v>0.0217961796534987</v>
       </c>
       <c r="C19" t="n">
         <v>0.0227654055373961</v>
@@ -1353,7 +1353,7 @@
         <v>0.0342822291664603</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0415773565414602</v>
+        <v>0.0415594784200132</v>
       </c>
       <c r="M19" t="n">
         <v>0.00671574456415272</v>
@@ -1367,7 +1367,7 @@
         <v>32</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0217129621337727</v>
+        <v>0.0217157251632889</v>
       </c>
       <c r="C20" t="n">
         <v>0.0191863665313236</v>
@@ -1397,7 +1397,7 @@
         <v>0.0236738440995859</v>
       </c>
       <c r="L20" t="n">
-        <v>0.00428937889706902</v>
+        <v>0.00434610216746973</v>
       </c>
       <c r="M20" t="n">
         <v>0.0112696670925992</v>
@@ -1411,7 +1411,7 @@
         <v>33</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0213449705114774</v>
+        <v>0.021345637890196</v>
       </c>
       <c r="C21" t="n">
         <v>0.0351213436485718</v>
@@ -1455,7 +1455,7 @@
         <v>34</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0206844352279172</v>
+        <v>0.0206861063655281</v>
       </c>
       <c r="C22" t="n">
         <v>0.0163305422257927</v>
@@ -1485,7 +1485,7 @@
         <v>0.0168674986489512</v>
       </c>
       <c r="L22" t="n">
-        <v>0.00750488936071051</v>
+        <v>0.00743549946875652</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>35</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0196039362479303</v>
+        <v>0.0196045491909112</v>
       </c>
       <c r="C23" t="n">
         <v>0.0197167966420528</v>
@@ -1543,7 +1543,7 @@
         <v>36</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0194707518124878</v>
+        <v>0.0195210065568142</v>
       </c>
       <c r="C24" t="n">
         <v>0.0186175523464722</v>
@@ -1573,7 +1573,7 @@
         <v>0.0100500131687251</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0327464240152075</v>
+        <v>0.0326882582615819</v>
       </c>
       <c r="M24" t="n">
         <v>0.00640673314223267</v>
@@ -1587,7 +1587,7 @@
         <v>37</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0164966770885023</v>
+        <v>0.0164971928789181</v>
       </c>
       <c r="C25" t="n">
         <v>0.0144995708620113</v>
@@ -1631,7 +1631,7 @@
         <v>38</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0140754722747706</v>
+        <v>0.0140759123630174</v>
       </c>
       <c r="C26" t="n">
         <v>0.0172513674965279</v>
@@ -1675,7 +1675,7 @@
         <v>39</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0125835543026273</v>
+        <v>0.0125959578567133</v>
       </c>
       <c r="C27" t="n">
         <v>0.0206209253131713</v>
@@ -1705,7 +1705,7 @@
         <v>0.00540132125728606</v>
       </c>
       <c r="L27" t="n">
-        <v>0.013202356130312</v>
+        <v>0.0131599516057428</v>
       </c>
       <c r="M27" t="n">
         <v>0.0111725402888186</v>
@@ -1719,7 +1719,7 @@
         <v>40</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0102086461959394</v>
+        <v>0.0102089653827574</v>
       </c>
       <c r="C28" t="n">
         <v>0.00270041148428609</v>
@@ -1763,7 +1763,7 @@
         <v>41</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0078943435126691</v>
+        <v>0.00789459033975443</v>
       </c>
       <c r="C29" t="n">
         <v>0.0129777440155641</v>
@@ -1807,7 +1807,7 @@
         <v>42</v>
       </c>
       <c r="B30" t="n">
-        <v>0.00698198150505145</v>
+        <v>0.00698219980593258</v>
       </c>
       <c r="C30" t="n">
         <v>0.000829900020555518</v>
@@ -1851,7 +1851,7 @@
         <v>43</v>
       </c>
       <c r="B31" t="n">
-        <v>0.00670790630270865</v>
+        <v>0.0067081631121562</v>
       </c>
       <c r="C31" t="n">
         <v>0.0039408705730024</v>
@@ -1881,7 +1881,7 @@
         <v>0.00187818176219553</v>
       </c>
       <c r="L31" t="n">
-        <v>0.00743983526599525</v>
+        <v>0.00739141076831788</v>
       </c>
       <c r="M31" t="n">
         <v>0.00611733285977923</v>
@@ -1895,7 +1895,7 @@
         <v>44</v>
       </c>
       <c r="B32" t="n">
-        <v>0.00629493510511014</v>
+        <v>0.00630206464345262</v>
       </c>
       <c r="C32" t="n">
         <v>0.00393925333703174</v>
@@ -1925,7 +1925,7 @@
         <v>0.00747020966848915</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0115755436343449</v>
+        <v>0.0115451820381161</v>
       </c>
       <c r="M32" t="n">
         <v>0.00806851541358217</v>
@@ -1939,7 +1939,7 @@
         <v>45</v>
       </c>
       <c r="B33" t="n">
-        <v>0.00581671316758039</v>
+        <v>0.00581689503480659</v>
       </c>
       <c r="C33" t="n">
         <v>0.00261152804180916</v>
@@ -1983,7 +1983,7 @@
         <v>46</v>
       </c>
       <c r="B34" t="n">
-        <v>0.00571328377139874</v>
+        <v>0.00571346240476816</v>
       </c>
       <c r="C34" t="n">
         <v>0.00520162477794216</v>
@@ -2027,7 +2027,7 @@
         <v>47</v>
       </c>
       <c r="B35" t="n">
-        <v>0.00489998021193802</v>
+        <v>0.00490232300984592</v>
       </c>
       <c r="C35" t="n">
         <v>0.00677449807958641</v>
@@ -2057,7 +2057,7 @@
         <v>0.00272721008893755</v>
       </c>
       <c r="L35" t="n">
-        <v>0.00464511174103632</v>
+        <v>0.00463381901856897</v>
       </c>
       <c r="M35" t="n">
         <v>0.00950815721353421</v>
@@ -2071,7 +2071,7 @@
         <v>48</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0047918411065227</v>
+        <v>0.00479418052331852</v>
       </c>
       <c r="C36" t="n">
         <v>0.00549956935133487</v>
@@ -2101,7 +2101,7 @@
         <v>0.00272721008893755</v>
       </c>
       <c r="L36" t="n">
-        <v>0.00464511174103632</v>
+        <v>0.00463381901856897</v>
       </c>
       <c r="M36" t="n">
         <v>0.00950815721353421</v>
@@ -2115,7 +2115,7 @@
         <v>49</v>
       </c>
       <c r="B37" t="n">
-        <v>0.00418617206584378</v>
+        <v>0.00418630295204706</v>
       </c>
       <c r="C37" t="n">
         <v>0.00278839060271047</v>
@@ -2159,7 +2159,7 @@
         <v>50</v>
       </c>
       <c r="B38" t="n">
-        <v>0.00330077064030956</v>
+        <v>0.00331168387411018</v>
       </c>
       <c r="C38" t="n">
         <v>0.00397781748021805</v>
@@ -2189,7 +2189,7 @@
         <v>0.00231329928369363</v>
       </c>
       <c r="L38" t="n">
-        <v>0.00405228630149418</v>
+        <v>0.00402927805629039</v>
       </c>
       <c r="M38" t="n">
         <v>0.00199526973153416</v>
@@ -2203,7 +2203,7 @@
         <v>51</v>
       </c>
       <c r="B39" t="n">
-        <v>0.00321116840169773</v>
+        <v>0.00322031916988495</v>
       </c>
       <c r="C39" t="n">
         <v>0.00193415450793693</v>
@@ -2233,7 +2233,7 @@
         <v>0.0154742883834252</v>
       </c>
       <c r="L39" t="n">
-        <v>0.00357793268854287</v>
+        <v>0.00374722966456626</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -2247,7 +2247,7 @@
         <v>52</v>
       </c>
       <c r="B40" t="n">
-        <v>0.00289020559643624</v>
+        <v>0.00289029596253473</v>
       </c>
       <c r="C40" t="n">
         <v>0.000817562023543983</v>
@@ -2291,7 +2291,7 @@
         <v>53</v>
       </c>
       <c r="B41" t="n">
-        <v>0.00260535698156389</v>
+        <v>0.0026054384414939</v>
       </c>
       <c r="C41" t="n">
         <v>0.000683701416196641</v>
@@ -2335,7 +2335,7 @@
         <v>54</v>
       </c>
       <c r="B42" t="n">
-        <v>0.00260236861085944</v>
+        <v>0.00260352213793439</v>
       </c>
       <c r="C42" t="n">
         <v>0.00227746911043968</v>
@@ -2365,7 +2365,7 @@
         <v>0.00604954157825526</v>
       </c>
       <c r="L42" t="n">
-        <v>0.00334637448551092</v>
+        <v>0.00336544011280304</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -2379,7 +2379,7 @@
         <v>55</v>
       </c>
       <c r="B43" t="n">
-        <v>0.00239941807195778</v>
+        <v>0.00239705466721444</v>
       </c>
       <c r="C43" t="n">
         <v>0.000900112180845446</v>
@@ -2409,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0.00631437840573418</v>
+        <v>0.00621249242548451</v>
       </c>
       <c r="M43" t="n">
         <v>0.00201612903225806</v>
@@ -2423,7 +2423,7 @@
         <v>56</v>
       </c>
       <c r="B44" t="n">
-        <v>0.00165549142688297</v>
+        <v>0.00165397041973707</v>
       </c>
       <c r="C44" t="n">
         <v>0.00265331359591758</v>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0.00348213291506612</v>
+        <v>0.00347698114893911</v>
       </c>
       <c r="M44" t="n">
         <v>0.00257321253971526</v>
@@ -2467,7 +2467,7 @@
         <v>57</v>
       </c>
       <c r="B45" t="n">
-        <v>0.000990324574522663</v>
+        <v>0.00099035553832958</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -2511,7 +2511,7 @@
         <v>58</v>
       </c>
       <c r="B46" t="n">
-        <v>0.000990324574522663</v>
+        <v>0.00099035553832958</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>59</v>
       </c>
       <c r="B47" t="n">
-        <v>0.000377011455847795</v>
+        <v>0.000377023243609328</v>
       </c>
       <c r="C47" t="n">
         <v>0.000974165295830254</v>
@@ -2599,7 +2599,7 @@
         <v>60</v>
       </c>
       <c r="B48" t="n">
-        <v>0.000133473113429774</v>
+        <v>0.000133477286643101</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
